--- a/biology/Zoologie/Coucou_de_Horsfield/Coucou_de_Horsfield.xlsx
+++ b/biology/Zoologie/Coucou_de_Horsfield/Coucou_de_Horsfield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysococcyx basalis
 Le Coucou de Horsfield (Chrysococcyx basalis) est une espèce d'oiseaux de la famille des Cuculidae.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi d'autres langues, il est souvent appelé : « coucou bronzé » ou « coucou à queue/croupion rouge ».
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente notamment des régions boisées, arides, de schorre, de mulga et de spinifex.
 Son aire s'étend à travers l'Australie ; il hiverne en Indonésie et en Nouvelle-Guinée.
@@ -575,7 +591,9 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 17 cm pour 22 g.
 </t>
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes, particulièrement de chenilles, de punaises et de coccinelles.
 </t>
